--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\CheckLists\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31821F-8D87-4DED-85AB-B007F4D3D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -52,15 +71,6 @@
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
-    <t>Popescu Ionel</t>
-  </si>
-  <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -116,19 +126,104 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>No additional information is given about the file structure. The requirements should mention the size, the name, the contents and the number of items in the file</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>F01a</t>
+  </si>
+  <si>
+    <t>The machine identifier isn't mentioned anywhere in the fields of the entities</t>
+  </si>
+  <si>
+    <t>F04a, F04b</t>
+  </si>
+  <si>
+    <t>What are the pieces/products deleted by?</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>The platform isn't specified (Android, IOS, webapp)</t>
+  </si>
+  <si>
+    <t>Florian Alex Dan</t>
+  </si>
+  <si>
+    <t>Ghenghiu Vlad Antoniu</t>
+  </si>
+  <si>
+    <t>Iacob Andrei</t>
+  </si>
+  <si>
+    <t>Florian Alex Dan, Ghenghiu Vlad Antoniu, Iacob Andrei</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>There is no exception handling specified</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>The validators should be in their own packages</t>
+  </si>
+  <si>
+    <t>Domain entities should be created by the services, not the repositories</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>InventoryService.java/line 15</t>
+  </si>
+  <si>
+    <t>When creating a new entity in the service, it needs to be validated first before being added to the repository</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>InventoryService.java/line 48</t>
+  </si>
+  <si>
+    <t>In Java it's best practice to check a string to a variable to avoid NullPointerExceptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,77 +397,77 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,14 +478,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +526,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,105 +771,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -781,46 +891,68 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -829,7 +961,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -838,7 +970,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -847,7 +979,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -856,87 +988,85 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -953,104 +1083,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="H5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1064,33 +1206,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1099,7 +1253,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1108,7 +1262,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1117,7 +1271,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1126,7 +1280,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1135,7 +1289,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1144,7 +1298,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1153,7 +1307,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1162,7 +1316,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1171,7 +1325,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1180,7 +1334,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1189,7 +1343,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1198,7 +1352,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1207,7 +1361,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1216,15 +1370,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1241,105 +1394,117 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="H5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1353,24 +1518,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1379,7 +1556,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1388,7 +1565,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1397,7 +1574,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1406,7 +1583,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1415,7 +1592,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1424,7 +1601,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1433,7 +1610,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1442,7 +1619,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1451,7 +1628,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1460,7 +1637,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1469,7 +1646,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1478,7 +1655,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1487,7 +1664,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1496,7 +1673,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1505,7 +1682,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1514,7 +1691,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1523,7 +1700,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1532,7 +1709,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1541,14 +1718,11 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
   </sheetData>
@@ -1566,113 +1740,113 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="H1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
-        <v>22</v>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="H5" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1681,7 +1855,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1691,7 +1865,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1701,7 +1875,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1711,7 +1885,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1721,7 +1895,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1731,7 +1905,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1741,7 +1915,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1751,7 +1925,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1761,7 +1935,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1771,7 +1945,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1781,7 +1955,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1791,7 +1965,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1801,7 +1975,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1811,7 +1985,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1821,7 +1995,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1831,7 +2005,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1841,7 +2015,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1851,7 +2025,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1861,7 +2035,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1871,7 +2045,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1881,16 +2055,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\Facultate\Semestrul 6\VVSS\infinity_inventory_vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31821F-8D87-4DED-85AB-B007F4D3D044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66FA24-221E-457A-96FC-FC9B97EA6695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>In Java it's best practice to check a string to a variable to avoid NullPointerExceptions</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java/line 80</t>
+  </si>
+  <si>
+    <t>BufferedReaders should be used with try-with-resources or it should be closed in a finally block</t>
   </si>
 </sst>
 </file>
@@ -425,6 +434,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -467,7 +477,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,19 +807,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -823,7 +832,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="17">
@@ -834,14 +843,14 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="17">
@@ -852,14 +861,14 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="17">
@@ -871,15 +880,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1090,7 +1099,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,19 +1118,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1134,7 +1143,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="17">
@@ -1145,14 +1154,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="17">
@@ -1163,14 +1172,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="17">
@@ -1182,15 +1191,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1401,7 +1410,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1418,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
@@ -1421,19 +1430,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1446,7 +1455,7 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="17">
@@ -1457,14 +1466,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="3">
@@ -1475,14 +1484,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>41</v>
       </c>
       <c r="J5" s="3">
@@ -1494,15 +1503,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1547,14 +1556,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1768,19 +1783,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1800,8 +1815,8 @@
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1812,8 +1827,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1825,8 +1840,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,11 +2071,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\Facultate\Semestrul 6\VVSS\infinity_inventory_vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66FA24-221E-457A-96FC-FC9B97EA6695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957F5768-AFBD-4BE0-884F-E069253B24FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -131,9 +131,6 @@
     <t>R07</t>
   </si>
   <si>
-    <t>No additional information is given about the file structure. The requirements should mention the size, the name, the contents and the number of items in the file</t>
-  </si>
-  <si>
     <t>R01</t>
   </si>
   <si>
@@ -213,19 +210,29 @@
   </si>
   <si>
     <t>BufferedReaders should be used with try-with-resources or it should be closed in a finally block</t>
+  </si>
+  <si>
+    <t>No additional information is given about the file structure. The requirements should mention the size, the name, and the contents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,79 +411,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +795,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -851,7 +859,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="17">
         <v>233</v>
@@ -862,14 +870,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="17">
         <v>233</v>
@@ -904,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -915,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -924,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -958,7 +966,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,7 +1082,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1162,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="17">
         <v>233</v>
@@ -1173,14 +1181,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="17">
         <v>233</v>
@@ -1220,11 +1228,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1233,11 +1241,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1246,11 +1254,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1385,7 +1393,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1409,8 +1417,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1474,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -1485,14 +1493,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1532,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1547,13 +1555,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1562,13 +1570,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,7 +1746,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="36" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\Facultate\Semestrul 6\VVSS\infinity_inventory_vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957F5768-AFBD-4BE0-884F-E069253B24FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F084FE-2AC2-4F54-B9E4-01E30DD392F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -170,9 +170,6 @@
     <t>A05</t>
   </si>
   <si>
-    <t>There is no exception handling specified</t>
-  </si>
-  <si>
     <t>A02</t>
   </si>
   <si>
@@ -213,6 +210,18 @@
   </si>
   <si>
     <t>No additional information is given about the file structure. The requirements should mention the size, the name, and the contents</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Inventory.java/line 11</t>
+  </si>
+  <si>
+    <t>Product list is named "products", but part list is named "allParts" - inconsistent naming of variables.</t>
+  </si>
+  <si>
+    <t>There is no exception handling specified. Solution: make a separate Exception class for each Domain class. Each class that uses a certain Domain class may throw the respective exception class (dependency annotated with &lt;&lt;throws&gt;&gt;&gt;.</t>
   </si>
 </sst>
 </file>
@@ -442,6 +451,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -484,7 +494,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,19 +824,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -851,10 +860,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -869,10 +878,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -888,15 +897,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -923,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1106,8 +1115,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,19 +1135,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1162,10 +1171,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1180,10 +1189,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1199,15 +1208,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1223,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1232,7 +1241,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1241,11 +1250,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1254,11 +1263,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1417,8 +1426,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,19 +1447,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1474,10 +1483,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1492,10 +1501,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1511,15 +1520,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1540,13 +1549,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1555,13 +1564,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1570,23 +1579,29 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1746,7 +1761,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1793,19 +1808,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1825,8 +1840,8 @@
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1837,8 +1852,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
@@ -1850,8 +1865,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2081,11 +2096,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\OneDrive\Desktop\Facultate\Semestrul 6\VVSS\infinity_inventory_vvss\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F084FE-2AC2-4F54-B9E4-01E30DD392F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECFA2D9-EF79-4ADA-8E86-97E80BF0FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>R07</t>
   </si>
   <si>
@@ -173,15 +170,9 @@
     <t>A02</t>
   </si>
   <si>
-    <t>A09</t>
-  </si>
-  <si>
     <t>The validators should be in their own packages</t>
   </si>
   <si>
-    <t>Domain entities should be created by the services, not the repositories</t>
-  </si>
-  <si>
     <t>C06</t>
   </si>
   <si>
@@ -222,13 +213,105 @@
   </si>
   <si>
     <t>There is no exception handling specified. Solution: make a separate Exception class for each Domain class. Each class that uses a certain Domain class may throw the respective exception class (dependency annotated with &lt;&lt;throws&gt;&gt;&gt;.</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java/line146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">				while(index&lt;list.size()-1){
+					line=line+list.get(index).getPartId()+":";
+					index++;
+				}</t>
+  </si>
+  <si>
+    <t>StringBuilder builder = new StringBuilder();
+				for (int i = 0; i &lt; list.size(); i++) {
+					builder.append(list.get(i).getPartId());
+					if (i &lt; list.size() - 1) {
+						builder.append(":");
+					}
+				}
+				if (index==list.size()-1) {
+					line+=builder.toString();
+				} else {
+					line+=builder.toString();
+				}</t>
+  </si>
+  <si>
+    <t>InventoryRepository.java/line23</t>
+  </si>
+  <si>
+    <t>Declare this local variable with "var"</t>
+  </si>
+  <si>
+    <t>Use StringBuilder instead.</t>
+  </si>
+  <si>
+    <t>File file = new File(filename);</t>
+  </si>
+  <si>
+    <t>It's good practice to have specific variable types.</t>
+  </si>
+  <si>
+    <t>Part.java/line 16</t>
+  </si>
+  <si>
+    <t>Change the visibility of this constructor to protected</t>
+  </si>
+  <si>
+    <t>protected Part(…)</t>
+  </si>
+  <si>
+    <t>public Part(...)</t>
+  </si>
+  <si>
+    <t>Product.java/line 61</t>
+  </si>
+  <si>
+    <t>Remove this useless assignment to local variable "associatedParts"</t>
+  </si>
+  <si>
+    <t>associatedParts = associatedParts</t>
+  </si>
+  <si>
+    <t>this.associatedParts = associatedParts;</t>
+  </si>
+  <si>
+    <t>Product.java/line 99</t>
+  </si>
+  <si>
+    <t>Use "integer.toString" instead</t>
+  </si>
+  <si>
+    <t>new Integer(p.getPartId()).toString().equals(searchItem))</t>
+  </si>
+  <si>
+    <t>p.getPartId().toString().equals(searchItem))</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Repository class can be a Singleton</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>25 minutes</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours): 25 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +401,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -420,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +541,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -494,6 +583,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,7 +895,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,19 +915,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -850,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -860,15 +951,15 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="17">
         <v>233</v>
@@ -878,15 +969,15 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="D5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="17">
         <v>233</v>
@@ -897,15 +988,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -926,13 +1017,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -941,13 +1032,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -956,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -971,11 +1062,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1091,7 +1182,7 @@
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1115,8 +1206,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,19 +1226,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1161,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1171,15 +1262,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="17">
         <v>233</v>
@@ -1189,15 +1280,15 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="31"/>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="17">
         <v>233</v>
@@ -1208,15 +1299,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1237,11 +1328,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1250,24 +1341,24 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,7 +1493,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1426,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,19 +1538,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1473,7 +1564,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="17">
         <v>233</v>
@@ -1483,15 +1574,15 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3">
         <v>233</v>
@@ -1501,15 +1592,15 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="34"/>
+      <c r="D5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3">
         <v>233</v>
@@ -1520,15 +1611,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1549,13 +1640,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1564,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1579,13 +1670,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1594,13 +1685,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1761,8 +1852,8 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="22" t="s">
-        <v>42</v>
+      <c r="E32" s="37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1786,19 +1877,20 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="34.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="50" style="6" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="6"/>
+    <col min="8" max="8" width="10.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
@@ -1808,19 +1900,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>27</v>
@@ -1833,43 +1925,57 @@
       <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="17">
+        <v>233</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="17">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="17">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1886,54 +1992,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2096,11 +2242,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
@@ -2112,6 +2258,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
